--- a/data/trans_bre/IP19C05-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP19C05-Estudios-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -642,17 +642,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,28</t>
+          <t>0,0; 10,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,08</t>
+          <t>0,0; 8,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,15</t>
+          <t>0,0; 11,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 0,93</t>
+          <t>-2,31; 0,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 2,06</t>
+          <t>-2,05; 2,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 3,53</t>
+          <t>-0,86; 3,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 307,52</t>
+          <t>-100,0; 216,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-79,08; 277,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-46,74; 525,61</t>
+          <t>-43,77; 675,72</t>
         </is>
       </c>
     </row>
@@ -802,17 +802,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,23</t>
+          <t>0,0; 5,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 7,41</t>
+          <t>-2,53; 7,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 2,14</t>
+          <t>-4,85; 2,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -822,7 +822,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-72,98; —</t>
+          <t>-66,19; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 1,09</t>
+          <t>-1,23; 1,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 2,82</t>
+          <t>-0,76; 2,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 2,8</t>
+          <t>-0,95; 2,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-84,07; 346,82</t>
+          <t>-81,5; 302,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-38,52; 301,72</t>
+          <t>-36,68; 325,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-39,98; 339,52</t>
+          <t>-42,23; 298,18</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP19C05-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP19C05-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -642,17 +642,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,33</t>
+          <t>0,0; 10,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,06</t>
+          <t>0,0; 9,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,7</t>
+          <t>0,0; 10,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 0,85</t>
+          <t>-2,63; 0,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 2,26</t>
+          <t>-1,88; 2,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 3,73</t>
+          <t>-0,94; 3,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 216,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,85; 350,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-43,77; 675,72</t>
+          <t>-45,24; 467,1</t>
         </is>
       </c>
     </row>
@@ -802,17 +802,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,03</t>
+          <t>0,0; 4,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 7,33</t>
+          <t>-2,41; 7,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 2,19</t>
+          <t>-4,88; 2,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -822,7 +822,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-66,19; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 1,14</t>
+          <t>-1,24; 1,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 2,76</t>
+          <t>-0,74; 2,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 2,71</t>
+          <t>-0,79; 2,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-81,5; 302,84</t>
+          <t>-81,22; 309,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-36,68; 325,62</t>
+          <t>-35,86; 396,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-42,23; 298,18</t>
+          <t>-38,01; 297,13</t>
         </is>
       </c>
     </row>
